--- a/data/McCormick_table.xlsx
+++ b/data/McCormick_table.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VSCodeWorkPath\Python\IEEE33BW_Reconfigration_NormalLightDamage\case33Py\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34559E0E-8C64-4EE2-8D59-5677F1116B73}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA7F80D-D58D-4C7E-B8AE-9A66D9B69CA5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{981D1FA6-33A8-4883-9396-8776E460D7B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{981D1FA6-33A8-4883-9396-8776E460D7B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="85">
   <si>
     <t>2,3</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -197,6 +198,178 @@
   </si>
   <si>
     <t>line</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>w1=ij</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>epsilon_j</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alpha_ij</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>w1_num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>线路端点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2，3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2，19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3，4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4，5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3，23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5，6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6，7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6，26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7，8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8，9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9，10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9，15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10，11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11，12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12，13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12，22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13，14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14，15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15，16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16，17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17，18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18，33</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19，20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20，21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21，22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>23，24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24，25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25，29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26，27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>27，28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>28，29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30，31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>31，32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29，30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32，33</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>w2=ji</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8，21</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -204,7 +377,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,8 +419,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,6 +477,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -311,7 +522,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -336,11 +547,53 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -658,27 +911,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB83F449-D0DE-48CB-8D34-49D65523A9F1}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="G1" s="8" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1609,19 +1862,19 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="A31" s="8">
         <v>28</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="8">
         <v>31</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <v>32</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="8">
         <v>31</v>
       </c>
       <c r="G31">
@@ -1641,19 +1894,19 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="A32" s="8">
         <v>29</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="8">
         <v>35</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="8">
         <v>32</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="8">
         <v>17</v>
       </c>
       <c r="G32">
@@ -1732,4 +1985,1871 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEAEA34D-4DA1-4516-BF18-A6AA883B6124}">
+  <dimension ref="A1:R74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="8.88671875" style="10"/>
+    <col min="7" max="11" width="8.88671875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="I1" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <v>0</v>
+      </c>
+      <c r="R1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="13">
+        <v>2</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="13">
+        <v>18</v>
+      </c>
+      <c r="D4" s="13">
+        <v>17</v>
+      </c>
+      <c r="E4" s="13">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10">
+        <v>2</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="10">
+        <v>1</v>
+      </c>
+      <c r="J4" s="10">
+        <v>1</v>
+      </c>
+      <c r="K4" s="10">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>2</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="14">
+        <v>3</v>
+      </c>
+      <c r="D5" s="14">
+        <v>2</v>
+      </c>
+      <c r="E5" s="14">
+        <v>2</v>
+      </c>
+      <c r="G5" s="10">
+        <v>4</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="10">
+        <v>3</v>
+      </c>
+      <c r="J5" s="10">
+        <v>3</v>
+      </c>
+      <c r="K5" s="10">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>2</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="14">
+        <v>22</v>
+      </c>
+      <c r="D6" s="14">
+        <v>21</v>
+      </c>
+      <c r="E6" s="14">
+        <v>3</v>
+      </c>
+      <c r="G6" s="10">
+        <v>5</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="10">
+        <v>4</v>
+      </c>
+      <c r="J6" s="10">
+        <v>4</v>
+      </c>
+      <c r="K6" s="10">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="10">
+        <v>5</v>
+      </c>
+      <c r="D7" s="10">
+        <v>4</v>
+      </c>
+      <c r="E7" s="10">
+        <v>4</v>
+      </c>
+      <c r="G7" s="10">
+        <v>6</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="10">
+        <v>5</v>
+      </c>
+      <c r="J7" s="10">
+        <v>5</v>
+      </c>
+      <c r="K7" s="10">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>6</v>
+      </c>
+      <c r="Q7">
+        <v>6</v>
+      </c>
+      <c r="R7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="15">
+        <v>6</v>
+      </c>
+      <c r="D8" s="15">
+        <v>5</v>
+      </c>
+      <c r="E8" s="15">
+        <v>5</v>
+      </c>
+      <c r="G8" s="10">
+        <v>8</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="10">
+        <v>7</v>
+      </c>
+      <c r="J8" s="10">
+        <v>7</v>
+      </c>
+      <c r="K8" s="10">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>7</v>
+      </c>
+      <c r="Q8">
+        <v>7</v>
+      </c>
+      <c r="R8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>5</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="15">
+        <v>25</v>
+      </c>
+      <c r="D9" s="15">
+        <v>24</v>
+      </c>
+      <c r="E9" s="15">
+        <v>6</v>
+      </c>
+      <c r="G9" s="10">
+        <v>9</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="10">
+        <v>8</v>
+      </c>
+      <c r="J9" s="10">
+        <v>8</v>
+      </c>
+      <c r="K9" s="10">
+        <v>6</v>
+      </c>
+      <c r="P9">
+        <v>8</v>
+      </c>
+      <c r="Q9">
+        <v>8</v>
+      </c>
+      <c r="R9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="10">
+        <v>7</v>
+      </c>
+      <c r="D10" s="10">
+        <v>6</v>
+      </c>
+      <c r="E10" s="10">
+        <v>7</v>
+      </c>
+      <c r="G10" s="10">
+        <v>10</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="10">
+        <v>9</v>
+      </c>
+      <c r="J10" s="10">
+        <v>9</v>
+      </c>
+      <c r="K10" s="10">
+        <v>7</v>
+      </c>
+      <c r="P10">
+        <v>9</v>
+      </c>
+      <c r="Q10">
+        <v>9</v>
+      </c>
+      <c r="R10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>8</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="16">
+        <v>9</v>
+      </c>
+      <c r="D11" s="16">
+        <v>8</v>
+      </c>
+      <c r="E11" s="16">
+        <v>8</v>
+      </c>
+      <c r="G11" s="10">
+        <v>11</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="10">
+        <v>10</v>
+      </c>
+      <c r="J11" s="10">
+        <v>10</v>
+      </c>
+      <c r="K11" s="10">
+        <v>8</v>
+      </c>
+      <c r="P11">
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <v>10</v>
+      </c>
+      <c r="R11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>8</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="16">
+        <v>14</v>
+      </c>
+      <c r="D12" s="16">
+        <v>33</v>
+      </c>
+      <c r="E12" s="16">
+        <v>9</v>
+      </c>
+      <c r="G12" s="10">
+        <v>12</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="10">
+        <v>11</v>
+      </c>
+      <c r="J12" s="10">
+        <v>11</v>
+      </c>
+      <c r="K12" s="10">
+        <v>9</v>
+      </c>
+      <c r="P12">
+        <v>11</v>
+      </c>
+      <c r="Q12">
+        <v>11</v>
+      </c>
+      <c r="R12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>9</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="10">
+        <v>10</v>
+      </c>
+      <c r="D13" s="10">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10">
+        <v>10</v>
+      </c>
+      <c r="G13" s="10">
+        <v>13</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="10">
+        <v>12</v>
+      </c>
+      <c r="J13" s="10">
+        <v>12</v>
+      </c>
+      <c r="K13" s="10">
+        <v>10</v>
+      </c>
+      <c r="P13">
+        <v>12</v>
+      </c>
+      <c r="Q13">
+        <v>12</v>
+      </c>
+      <c r="R13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>10</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="10">
+        <v>11</v>
+      </c>
+      <c r="D14" s="10">
+        <v>10</v>
+      </c>
+      <c r="E14" s="10">
+        <v>11</v>
+      </c>
+      <c r="G14" s="18">
+        <v>14</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="19">
+        <v>13</v>
+      </c>
+      <c r="J14" s="19">
+        <v>13</v>
+      </c>
+      <c r="K14" s="19">
+        <v>11</v>
+      </c>
+      <c r="P14">
+        <v>13</v>
+      </c>
+      <c r="Q14">
+        <v>13</v>
+      </c>
+      <c r="R14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>11</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="17">
+        <v>12</v>
+      </c>
+      <c r="D15" s="17">
+        <v>11</v>
+      </c>
+      <c r="E15" s="17">
+        <v>12</v>
+      </c>
+      <c r="G15" s="19">
+        <v>14</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="19">
+        <v>8</v>
+      </c>
+      <c r="J15" s="19">
+        <v>33</v>
+      </c>
+      <c r="K15" s="19">
+        <v>12</v>
+      </c>
+      <c r="P15">
+        <v>14</v>
+      </c>
+      <c r="Q15">
+        <v>14</v>
+      </c>
+      <c r="R15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>11</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="17">
+        <v>21</v>
+      </c>
+      <c r="D16" s="17">
+        <v>34</v>
+      </c>
+      <c r="E16" s="17">
+        <v>13</v>
+      </c>
+      <c r="G16" s="10">
+        <v>15</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="10">
+        <v>14</v>
+      </c>
+      <c r="J16" s="10">
+        <v>14</v>
+      </c>
+      <c r="K16" s="10">
+        <v>13</v>
+      </c>
+      <c r="P16">
+        <v>15</v>
+      </c>
+      <c r="Q16">
+        <v>15</v>
+      </c>
+      <c r="R16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>12</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="10">
+        <v>13</v>
+      </c>
+      <c r="D17" s="10">
+        <v>12</v>
+      </c>
+      <c r="E17" s="10">
+        <v>14</v>
+      </c>
+      <c r="G17" s="10">
+        <v>16</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="10">
+        <v>15</v>
+      </c>
+      <c r="J17" s="10">
+        <v>15</v>
+      </c>
+      <c r="K17" s="10">
+        <v>14</v>
+      </c>
+      <c r="P17">
+        <v>16</v>
+      </c>
+      <c r="Q17">
+        <v>16</v>
+      </c>
+      <c r="R17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>13</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="10">
+        <v>14</v>
+      </c>
+      <c r="D18" s="10">
+        <v>13</v>
+      </c>
+      <c r="E18" s="10">
+        <v>15</v>
+      </c>
+      <c r="G18" s="10">
+        <v>17</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="10">
+        <v>16</v>
+      </c>
+      <c r="J18" s="10">
+        <v>16</v>
+      </c>
+      <c r="K18" s="10">
+        <v>15</v>
+      </c>
+      <c r="P18">
+        <v>17</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>14</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="10">
+        <v>15</v>
+      </c>
+      <c r="D19" s="10">
+        <v>14</v>
+      </c>
+      <c r="E19" s="10">
+        <v>16</v>
+      </c>
+      <c r="G19" s="10">
+        <v>18</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="10">
+        <v>1</v>
+      </c>
+      <c r="J19" s="10">
+        <v>17</v>
+      </c>
+      <c r="K19" s="10">
+        <v>16</v>
+      </c>
+      <c r="P19">
+        <v>18</v>
+      </c>
+      <c r="Q19">
+        <v>18</v>
+      </c>
+      <c r="R19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>15</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="10">
+        <v>16</v>
+      </c>
+      <c r="D20" s="10">
+        <v>15</v>
+      </c>
+      <c r="E20" s="10">
+        <v>17</v>
+      </c>
+      <c r="G20" s="10">
+        <v>19</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="10">
+        <v>18</v>
+      </c>
+      <c r="J20" s="10">
+        <v>18</v>
+      </c>
+      <c r="K20" s="10">
+        <v>17</v>
+      </c>
+      <c r="P20">
+        <v>19</v>
+      </c>
+      <c r="Q20">
+        <v>19</v>
+      </c>
+      <c r="R20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>16</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="10">
+        <v>17</v>
+      </c>
+      <c r="D21" s="10">
+        <v>16</v>
+      </c>
+      <c r="E21" s="10">
+        <v>18</v>
+      </c>
+      <c r="G21" s="20">
+        <v>20</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="20">
+        <v>19</v>
+      </c>
+      <c r="J21" s="20">
+        <v>19</v>
+      </c>
+      <c r="K21" s="20">
+        <v>18</v>
+      </c>
+      <c r="P21">
+        <v>20</v>
+      </c>
+      <c r="Q21">
+        <v>20</v>
+      </c>
+      <c r="R21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>17</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="10">
+        <v>32</v>
+      </c>
+      <c r="D22" s="10">
+        <v>35</v>
+      </c>
+      <c r="E22" s="10">
+        <v>19</v>
+      </c>
+      <c r="G22" s="20">
+        <v>20</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" s="20">
+        <v>7</v>
+      </c>
+      <c r="J22" s="20">
+        <v>32</v>
+      </c>
+      <c r="K22" s="20">
+        <v>19</v>
+      </c>
+      <c r="P22">
+        <v>21</v>
+      </c>
+      <c r="Q22">
+        <v>2</v>
+      </c>
+      <c r="R22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>18</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="10">
+        <v>19</v>
+      </c>
+      <c r="D23" s="10">
+        <v>18</v>
+      </c>
+      <c r="E23" s="10">
+        <v>20</v>
+      </c>
+      <c r="G23" s="10">
+        <v>22</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="10">
+        <v>2</v>
+      </c>
+      <c r="J23" s="10">
+        <v>21</v>
+      </c>
+      <c r="K23" s="10">
+        <v>20</v>
+      </c>
+      <c r="P23">
+        <v>22</v>
+      </c>
+      <c r="Q23">
+        <v>22</v>
+      </c>
+      <c r="R23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>19</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="10">
+        <v>20</v>
+      </c>
+      <c r="D24" s="10">
+        <v>19</v>
+      </c>
+      <c r="E24" s="10">
+        <v>21</v>
+      </c>
+      <c r="G24" s="10">
+        <v>23</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" s="10">
+        <v>22</v>
+      </c>
+      <c r="J24" s="10">
+        <v>22</v>
+      </c>
+      <c r="K24" s="10">
+        <v>21</v>
+      </c>
+      <c r="P24">
+        <v>23</v>
+      </c>
+      <c r="Q24">
+        <v>23</v>
+      </c>
+      <c r="R24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>20</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="10">
+        <v>21</v>
+      </c>
+      <c r="D25" s="10">
+        <v>20</v>
+      </c>
+      <c r="E25" s="10">
+        <v>22</v>
+      </c>
+      <c r="G25" s="10">
+        <v>24</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" s="10">
+        <v>23</v>
+      </c>
+      <c r="J25" s="10">
+        <v>23</v>
+      </c>
+      <c r="K25" s="10">
+        <v>22</v>
+      </c>
+      <c r="P25">
+        <v>24</v>
+      </c>
+      <c r="Q25">
+        <v>5</v>
+      </c>
+      <c r="R25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>22</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="10">
+        <v>23</v>
+      </c>
+      <c r="D26" s="10">
+        <v>22</v>
+      </c>
+      <c r="E26" s="10">
+        <v>23</v>
+      </c>
+      <c r="G26" s="10">
+        <v>25</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" s="10">
+        <v>5</v>
+      </c>
+      <c r="J26" s="10">
+        <v>24</v>
+      </c>
+      <c r="K26" s="10">
+        <v>23</v>
+      </c>
+      <c r="P26">
+        <v>25</v>
+      </c>
+      <c r="Q26">
+        <v>25</v>
+      </c>
+      <c r="R26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>23</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="10">
+        <v>24</v>
+      </c>
+      <c r="D27" s="10">
+        <v>23</v>
+      </c>
+      <c r="E27" s="10">
+        <v>24</v>
+      </c>
+      <c r="G27" s="10">
+        <v>26</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" s="10">
+        <v>25</v>
+      </c>
+      <c r="J27" s="10">
+        <v>25</v>
+      </c>
+      <c r="K27" s="10">
+        <v>24</v>
+      </c>
+      <c r="P27">
+        <v>26</v>
+      </c>
+      <c r="Q27">
+        <v>26</v>
+      </c>
+      <c r="R27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>24</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="10">
+        <v>28</v>
+      </c>
+      <c r="D28" s="10">
+        <v>36</v>
+      </c>
+      <c r="E28" s="10">
+        <v>25</v>
+      </c>
+      <c r="G28" s="10">
+        <v>27</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I28" s="10">
+        <v>26</v>
+      </c>
+      <c r="J28" s="10">
+        <v>26</v>
+      </c>
+      <c r="K28" s="10">
+        <v>25</v>
+      </c>
+      <c r="P28">
+        <v>27</v>
+      </c>
+      <c r="Q28">
+        <v>27</v>
+      </c>
+      <c r="R28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>25</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="10">
+        <v>26</v>
+      </c>
+      <c r="D29" s="10">
+        <v>25</v>
+      </c>
+      <c r="E29" s="10">
+        <v>26</v>
+      </c>
+      <c r="G29" s="21">
+        <v>28</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I29" s="21">
+        <v>27</v>
+      </c>
+      <c r="J29" s="21">
+        <v>27</v>
+      </c>
+      <c r="K29" s="21">
+        <v>26</v>
+      </c>
+      <c r="P29">
+        <v>28</v>
+      </c>
+      <c r="Q29">
+        <v>28</v>
+      </c>
+      <c r="R29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>26</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="10">
+        <v>27</v>
+      </c>
+      <c r="D30" s="10">
+        <v>26</v>
+      </c>
+      <c r="E30" s="10">
+        <v>27</v>
+      </c>
+      <c r="G30" s="21">
+        <v>28</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="I30" s="21">
+        <v>24</v>
+      </c>
+      <c r="J30" s="21">
+        <v>36</v>
+      </c>
+      <c r="K30" s="21">
+        <v>27</v>
+      </c>
+      <c r="P30">
+        <v>29</v>
+      </c>
+      <c r="Q30">
+        <v>29</v>
+      </c>
+      <c r="R30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>27</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="10">
+        <v>28</v>
+      </c>
+      <c r="D31" s="10">
+        <v>27</v>
+      </c>
+      <c r="E31" s="10">
+        <v>28</v>
+      </c>
+      <c r="G31" s="10">
+        <v>29</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I31" s="10">
+        <v>28</v>
+      </c>
+      <c r="J31" s="10">
+        <v>28</v>
+      </c>
+      <c r="K31" s="10">
+        <v>28</v>
+      </c>
+      <c r="P31">
+        <v>30</v>
+      </c>
+      <c r="Q31">
+        <v>30</v>
+      </c>
+      <c r="R31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>28</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="10">
+        <v>29</v>
+      </c>
+      <c r="D32" s="10">
+        <v>28</v>
+      </c>
+      <c r="E32" s="10">
+        <v>29</v>
+      </c>
+      <c r="G32" s="10">
+        <v>30</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I32" s="10">
+        <v>29</v>
+      </c>
+      <c r="J32" s="10">
+        <v>29</v>
+      </c>
+      <c r="K32" s="10">
+        <v>29</v>
+      </c>
+      <c r="P32">
+        <v>31</v>
+      </c>
+      <c r="Q32">
+        <v>31</v>
+      </c>
+      <c r="R32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>29</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="10">
+        <v>30</v>
+      </c>
+      <c r="D33" s="10">
+        <v>29</v>
+      </c>
+      <c r="E33" s="10">
+        <v>30</v>
+      </c>
+      <c r="G33" s="10">
+        <v>31</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I33" s="10">
+        <v>30</v>
+      </c>
+      <c r="J33" s="10">
+        <v>30</v>
+      </c>
+      <c r="K33" s="10">
+        <v>30</v>
+      </c>
+      <c r="P33">
+        <v>32</v>
+      </c>
+      <c r="Q33">
+        <v>7</v>
+      </c>
+      <c r="R33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>30</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="10">
+        <v>31</v>
+      </c>
+      <c r="D34" s="10">
+        <v>30</v>
+      </c>
+      <c r="E34" s="10">
+        <v>31</v>
+      </c>
+      <c r="G34" s="22">
+        <v>32</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="I34" s="23">
+        <v>31</v>
+      </c>
+      <c r="J34" s="23">
+        <v>31</v>
+      </c>
+      <c r="K34" s="23">
+        <v>31</v>
+      </c>
+      <c r="P34">
+        <v>33</v>
+      </c>
+      <c r="Q34">
+        <v>8</v>
+      </c>
+      <c r="R34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>31</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="10">
+        <v>32</v>
+      </c>
+      <c r="D35" s="10">
+        <v>31</v>
+      </c>
+      <c r="E35" s="10">
+        <v>32</v>
+      </c>
+      <c r="G35" s="23">
+        <v>32</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I35" s="23">
+        <v>17</v>
+      </c>
+      <c r="J35" s="23">
+        <v>35</v>
+      </c>
+      <c r="K35" s="23">
+        <v>32</v>
+      </c>
+      <c r="P35">
+        <v>34</v>
+      </c>
+      <c r="Q35">
+        <v>11</v>
+      </c>
+      <c r="R35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P36">
+        <v>35</v>
+      </c>
+      <c r="Q36">
+        <v>17</v>
+      </c>
+      <c r="R36">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P37">
+        <v>36</v>
+      </c>
+      <c r="Q37">
+        <v>24</v>
+      </c>
+      <c r="R37">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P38">
+        <v>37</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P39">
+        <v>38</v>
+      </c>
+      <c r="Q39">
+        <v>2</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P40">
+        <v>39</v>
+      </c>
+      <c r="Q40">
+        <v>3</v>
+      </c>
+      <c r="R40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P41">
+        <v>40</v>
+      </c>
+      <c r="Q41">
+        <v>4</v>
+      </c>
+      <c r="R41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P42">
+        <v>41</v>
+      </c>
+      <c r="Q42">
+        <v>5</v>
+      </c>
+      <c r="R42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P43">
+        <v>42</v>
+      </c>
+      <c r="Q43">
+        <v>6</v>
+      </c>
+      <c r="R43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P44">
+        <v>43</v>
+      </c>
+      <c r="Q44">
+        <v>7</v>
+      </c>
+      <c r="R44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P45">
+        <v>44</v>
+      </c>
+      <c r="Q45">
+        <v>8</v>
+      </c>
+      <c r="R45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P46">
+        <v>45</v>
+      </c>
+      <c r="Q46">
+        <v>9</v>
+      </c>
+      <c r="R46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P47">
+        <v>46</v>
+      </c>
+      <c r="Q47">
+        <v>10</v>
+      </c>
+      <c r="R47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P48">
+        <v>47</v>
+      </c>
+      <c r="Q48">
+        <v>11</v>
+      </c>
+      <c r="R48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P49">
+        <v>48</v>
+      </c>
+      <c r="Q49">
+        <v>12</v>
+      </c>
+      <c r="R49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P50">
+        <v>49</v>
+      </c>
+      <c r="Q50">
+        <v>13</v>
+      </c>
+      <c r="R50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P51">
+        <v>50</v>
+      </c>
+      <c r="Q51">
+        <v>14</v>
+      </c>
+      <c r="R51">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P52">
+        <v>51</v>
+      </c>
+      <c r="Q52">
+        <v>15</v>
+      </c>
+      <c r="R52">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P53">
+        <v>52</v>
+      </c>
+      <c r="Q53">
+        <v>16</v>
+      </c>
+      <c r="R53">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P54">
+        <v>53</v>
+      </c>
+      <c r="Q54">
+        <v>17</v>
+      </c>
+      <c r="R54">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P55">
+        <v>54</v>
+      </c>
+      <c r="Q55">
+        <v>18</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P56">
+        <v>55</v>
+      </c>
+      <c r="Q56">
+        <v>19</v>
+      </c>
+      <c r="R56">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P57">
+        <v>56</v>
+      </c>
+      <c r="Q57">
+        <v>20</v>
+      </c>
+      <c r="R57">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P58">
+        <v>57</v>
+      </c>
+      <c r="Q58">
+        <v>21</v>
+      </c>
+      <c r="R58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P59">
+        <v>58</v>
+      </c>
+      <c r="Q59">
+        <v>22</v>
+      </c>
+      <c r="R59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P60">
+        <v>59</v>
+      </c>
+      <c r="Q60">
+        <v>23</v>
+      </c>
+      <c r="R60">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P61">
+        <v>60</v>
+      </c>
+      <c r="Q61">
+        <v>24</v>
+      </c>
+      <c r="R61">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P62">
+        <v>61</v>
+      </c>
+      <c r="Q62">
+        <v>25</v>
+      </c>
+      <c r="R62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P63">
+        <v>62</v>
+      </c>
+      <c r="Q63">
+        <v>26</v>
+      </c>
+      <c r="R63">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P64">
+        <v>63</v>
+      </c>
+      <c r="Q64">
+        <v>27</v>
+      </c>
+      <c r="R64">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P65">
+        <v>64</v>
+      </c>
+      <c r="Q65">
+        <v>28</v>
+      </c>
+      <c r="R65">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P66">
+        <v>65</v>
+      </c>
+      <c r="Q66">
+        <v>29</v>
+      </c>
+      <c r="R66">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P67">
+        <v>66</v>
+      </c>
+      <c r="Q67">
+        <v>30</v>
+      </c>
+      <c r="R67">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P68">
+        <v>67</v>
+      </c>
+      <c r="Q68">
+        <v>31</v>
+      </c>
+      <c r="R68">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P69">
+        <v>68</v>
+      </c>
+      <c r="Q69">
+        <v>32</v>
+      </c>
+      <c r="R69">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P70">
+        <v>69</v>
+      </c>
+      <c r="Q70">
+        <v>20</v>
+      </c>
+      <c r="R70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P71">
+        <v>70</v>
+      </c>
+      <c r="Q71">
+        <v>14</v>
+      </c>
+      <c r="R71">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P72">
+        <v>71</v>
+      </c>
+      <c r="Q72">
+        <v>21</v>
+      </c>
+      <c r="R72">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P73">
+        <v>72</v>
+      </c>
+      <c r="Q73">
+        <v>32</v>
+      </c>
+      <c r="R73">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P74">
+        <v>73</v>
+      </c>
+      <c r="Q74">
+        <v>28</v>
+      </c>
+      <c r="R74">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>